--- a/simulation/python/data/Book1_copy_5.xlsx
+++ b/simulation/python/data/Book1_copy_5.xlsx
@@ -120,7 +120,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,7 +195,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>215</v>
@@ -207,12 +207,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>225</v>
@@ -224,7 +224,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
